--- a/BackUp.xlsx
+++ b/BackUp.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,228 +434,179 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>الإسم الثلاثي</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>رقم الهوية</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>الجنس</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>الحالة</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>العمر</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>أولاد</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>صلاة</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>الصحة</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>العمل</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>المرافق</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>البلد</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>الهاتف</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>وصف الحالة</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>التشخيص</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>العلاج</t>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>fullname</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>firstname</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>middlename</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>lastname</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>id_number</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>social</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>prayer</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>health</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>companion</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>therapy</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>محمد خالد غنايم</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>محمد</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>خالد</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>غنايم</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>208653220</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>ذكر</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>أعزب</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>نعم</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>حرقة</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>عاطل</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>لا أحد</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>سخنين</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>0528942919</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>يبلاث</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>صثقلثق</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>ثقبلثق
-ثقلثقل</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>معمر خالد غنايم</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>209481687</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ذكر</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>أعزب</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>لا</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>عاطل</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>سخنين</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0538225071</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>السلام عليكم يا جماعة</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
